--- a/database/industries/methanol/shekhark/product/quarterly_seprated.xlsx
+++ b/database/industries/methanol/shekhark/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekhark\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46333FE9-B32C-463A-AD25-2896FB420C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E5A4D1-87D2-423B-923E-27BD853A2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -660,16 +675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I104"/>
+  <dimension ref="B1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -678,8 +693,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,8 +710,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -702,8 +727,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -712,8 +742,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -724,8 +759,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -736,8 +776,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -746,8 +791,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,8 +818,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -778,10 +843,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -790,10 +860,15 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -812,10 +887,25 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -824,224 +914,364 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>30922</v>
+      </c>
+      <c r="G13" s="15">
+        <v>26952</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>33839</v>
+      </c>
+      <c r="J13" s="15">
         <v>34479</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="K13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="15">
         <v>32002</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17">
+        <v>149065</v>
+      </c>
+      <c r="F14" s="17">
+        <v>191469</v>
+      </c>
+      <c r="G14" s="17">
+        <v>216913</v>
+      </c>
+      <c r="H14" s="17">
+        <v>120994</v>
+      </c>
+      <c r="I14" s="17">
+        <v>193858</v>
+      </c>
+      <c r="J14" s="17">
         <v>75828</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="17">
+      <c r="K14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="17">
         <v>107272</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
+        <v>17667</v>
+      </c>
+      <c r="F15" s="15">
+        <v>19292</v>
+      </c>
+      <c r="G15" s="15">
+        <v>21972</v>
+      </c>
+      <c r="H15" s="15">
+        <v>47304</v>
+      </c>
+      <c r="I15" s="15">
+        <v>17862</v>
+      </c>
+      <c r="J15" s="15">
         <v>25479</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="K15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="15">
         <v>25721</v>
       </c>
-      <c r="H15" s="15">
+      <c r="M15" s="15">
         <v>25668</v>
       </c>
-      <c r="I15" s="15">
+      <c r="N15" s="15">
         <v>26760</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17">
+        <v>10777</v>
+      </c>
+      <c r="F16" s="17">
+        <v>14672</v>
+      </c>
+      <c r="G16" s="17">
+        <v>19885</v>
+      </c>
+      <c r="H16" s="17">
+        <v>34105</v>
+      </c>
+      <c r="I16" s="17">
+        <v>14000</v>
+      </c>
+      <c r="J16" s="17">
         <v>18732</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="17">
+      <c r="K16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="17">
         <v>15027</v>
       </c>
-      <c r="H16" s="17">
+      <c r="M16" s="17">
         <v>14995</v>
       </c>
-      <c r="I16" s="17">
+      <c r="N16" s="17">
         <v>29809</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
+        <v>25687</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>20112</v>
+      </c>
+      <c r="H17" s="15">
+        <v>22401</v>
+      </c>
+      <c r="I17" s="15">
+        <v>22028</v>
+      </c>
+      <c r="J17" s="15">
         <v>25107</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>20018</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="17">
+        <v>20</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="17">
         <v>30221</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>9266</v>
       </c>
-      <c r="I18" s="17">
+      <c r="N18" s="17">
         <v>37301</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="15">
+        <v>20</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="15">
         <v>225442</v>
       </c>
-      <c r="I19" s="15">
+      <c r="N19" s="15">
         <v>198647</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
+        <v>20</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
         <v>28010</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
+        <v>203196</v>
+      </c>
+      <c r="F21" s="11">
+        <v>256355</v>
+      </c>
+      <c r="G21" s="11">
+        <v>305834</v>
+      </c>
+      <c r="H21" s="11">
+        <v>224804</v>
+      </c>
+      <c r="I21" s="11">
+        <v>281587</v>
+      </c>
+      <c r="J21" s="11">
         <v>179625</v>
       </c>
-      <c r="F21" s="11">
+      <c r="K21" s="11">
         <v>20018</v>
       </c>
-      <c r="G21" s="11">
+      <c r="L21" s="11">
         <v>210243</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>275371</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>320527</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1050,10 +1280,15 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1072,76 +1307,136 @@
       <c r="I23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>15</v>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>15</v>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="11">
-        <v>0</v>
+      <c r="H25" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
+        <v>203196</v>
+      </c>
+      <c r="F26" s="19">
+        <v>256355</v>
+      </c>
+      <c r="G26" s="19">
+        <v>305834</v>
+      </c>
+      <c r="H26" s="19">
+        <v>224804</v>
+      </c>
+      <c r="I26" s="19">
+        <v>281587</v>
+      </c>
+      <c r="J26" s="19">
         <v>179625</v>
       </c>
-      <c r="F26" s="19">
+      <c r="K26" s="19">
         <v>20018</v>
       </c>
-      <c r="G26" s="19">
+      <c r="L26" s="19">
         <v>210243</v>
       </c>
-      <c r="H26" s="19">
+      <c r="M26" s="19">
         <v>275371</v>
       </c>
-      <c r="I26" s="19">
+      <c r="N26" s="19">
         <v>320527</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1150,8 +1445,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1160,8 +1460,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1170,10 +1475,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1192,8 +1502,23 @@
       <c r="I30" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1202,10 +1527,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1214,10 +1544,15 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1236,10 +1571,25 @@
       <c r="I33" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1248,224 +1598,364 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>404657</v>
+      </c>
+      <c r="G35" s="15">
+        <v>595181</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>1067371</v>
+      </c>
+      <c r="J35" s="15">
         <v>1498293</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="15">
+      <c r="K35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="15">
         <v>3200464</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17">
+        <v>5320785</v>
+      </c>
+      <c r="F36" s="17">
+        <v>10829863</v>
+      </c>
+      <c r="G36" s="17">
+        <v>16487296</v>
+      </c>
+      <c r="H36" s="17">
+        <v>8369642</v>
+      </c>
+      <c r="I36" s="17">
+        <v>16044017</v>
+      </c>
+      <c r="J36" s="17">
         <v>6401260</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="17">
+      <c r="K36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="17">
         <v>9426909</v>
       </c>
-      <c r="H36" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>941754</v>
+      </c>
+      <c r="F37" s="15">
+        <v>1423899</v>
+      </c>
+      <c r="G37" s="15">
+        <v>2450497</v>
+      </c>
+      <c r="H37" s="15">
+        <v>3880592</v>
+      </c>
+      <c r="I37" s="15">
+        <v>2491663</v>
+      </c>
+      <c r="J37" s="15">
         <v>4625080</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="K37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="15">
         <v>4325160</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>3564632</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>3569570</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17">
+        <v>622535</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1115645</v>
+      </c>
+      <c r="G38" s="17">
+        <v>2343352</v>
+      </c>
+      <c r="H38" s="17">
+        <v>2859051</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1960595</v>
+      </c>
+      <c r="J38" s="17">
         <v>3533944</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="17">
+      <c r="K38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="17">
         <v>2508882</v>
       </c>
-      <c r="H38" s="17">
+      <c r="M38" s="17">
         <v>2142119</v>
       </c>
-      <c r="I38" s="17">
+      <c r="N38" s="17">
         <v>4010713</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>1447163</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>2169700</v>
+      </c>
+      <c r="H39" s="15">
+        <v>2514363</v>
+      </c>
+      <c r="I39" s="15">
+        <v>2792654</v>
+      </c>
+      <c r="J39" s="15">
         <v>3885520</v>
       </c>
-      <c r="F39" s="15">
+      <c r="K39" s="15">
         <v>3364568</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="17">
+        <v>20</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="17">
         <v>5776639</v>
       </c>
-      <c r="H40" s="17">
+      <c r="M40" s="17">
         <v>1298480</v>
       </c>
-      <c r="I40" s="17">
+      <c r="N40" s="17">
         <v>5599822</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="15">
+        <v>20</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="15">
         <v>16205791</v>
       </c>
-      <c r="I41" s="15">
+      <c r="N41" s="15">
         <v>16449455</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="17">
+        <v>20</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="17">
         <v>-166</v>
       </c>
-      <c r="I42" s="17">
+      <c r="N42" s="17">
         <v>630300</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>8332237</v>
+      </c>
+      <c r="F43" s="11">
+        <v>13774064</v>
+      </c>
+      <c r="G43" s="11">
+        <v>24046026</v>
+      </c>
+      <c r="H43" s="11">
+        <v>17623648</v>
+      </c>
+      <c r="I43" s="11">
+        <v>24356300</v>
+      </c>
+      <c r="J43" s="11">
         <v>19944097</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>3364568</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>25238054</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>23210856</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>30259860</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1474,10 +1964,15 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1496,78 +1991,138 @@
       <c r="I45" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C46" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19">
+        <v>0</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
+        <v>0</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="C47" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>15</v>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
       </c>
-      <c r="H47" s="11">
-        <v>0</v>
+      <c r="H47" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I47" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
+        <v>8332237</v>
+      </c>
+      <c r="F48" s="19">
+        <v>13774064</v>
+      </c>
+      <c r="G48" s="19">
+        <v>24046026</v>
+      </c>
+      <c r="H48" s="19">
+        <v>17623648</v>
+      </c>
+      <c r="I48" s="19">
+        <v>24356300</v>
+      </c>
+      <c r="J48" s="19">
         <v>19944097</v>
       </c>
-      <c r="F48" s="19">
+      <c r="K48" s="19">
         <v>3364568</v>
       </c>
-      <c r="G48" s="19">
+      <c r="L48" s="19">
         <v>25238054</v>
       </c>
-      <c r="H48" s="19">
+      <c r="M48" s="19">
         <v>23210856</v>
       </c>
-      <c r="I48" s="19">
+      <c r="N48" s="19">
         <v>30259860</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1576,8 +2131,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1586,8 +2146,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1596,10 +2161,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1618,8 +2188,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1628,10 +2213,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -1640,200 +2230,325 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D55" s="15"/>
-      <c r="E55" s="15">
+      <c r="E55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="15">
+        <v>13086379</v>
+      </c>
+      <c r="G55" s="15">
+        <v>22082999</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="15">
+        <v>31542628</v>
+      </c>
+      <c r="J55" s="15">
         <v>43455234</v>
       </c>
-      <c r="F55" s="15">
+      <c r="K55" s="15">
         <v>66981359</v>
       </c>
-      <c r="G55" s="15">
+      <c r="L55" s="15">
         <v>100008249</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17">
+        <v>35694395</v>
+      </c>
+      <c r="F56" s="17">
+        <v>56561966</v>
+      </c>
+      <c r="G56" s="17">
+        <v>76008796</v>
+      </c>
+      <c r="H56" s="17">
+        <v>69174025</v>
+      </c>
+      <c r="I56" s="17">
+        <v>82761697</v>
+      </c>
+      <c r="J56" s="17">
         <v>84418157</v>
       </c>
-      <c r="F56" s="17">
+      <c r="K56" s="17">
         <v>79384791</v>
       </c>
-      <c r="G56" s="17">
+      <c r="L56" s="17">
         <v>87878561</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M56" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
+        <v>53305824</v>
+      </c>
+      <c r="F57" s="15">
+        <v>73807744</v>
+      </c>
+      <c r="G57" s="15">
+        <v>111528172</v>
+      </c>
+      <c r="H57" s="15">
+        <v>82035177</v>
+      </c>
+      <c r="I57" s="15">
+        <v>139495185</v>
+      </c>
+      <c r="J57" s="15">
         <v>181525217</v>
       </c>
-      <c r="F57" s="15">
+      <c r="K57" s="15">
         <v>181633676</v>
       </c>
-      <c r="G57" s="15">
+      <c r="L57" s="15">
         <v>168156759</v>
       </c>
-      <c r="H57" s="15">
+      <c r="M57" s="15">
         <v>138874552</v>
       </c>
-      <c r="I57" s="15">
+      <c r="N57" s="15">
         <v>133392003</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17">
+        <v>57765148</v>
+      </c>
+      <c r="F58" s="17">
+        <v>76039054</v>
+      </c>
+      <c r="G58" s="17">
+        <v>117845210</v>
+      </c>
+      <c r="H58" s="17">
+        <v>83830846</v>
+      </c>
+      <c r="I58" s="17">
+        <v>140042500</v>
+      </c>
+      <c r="J58" s="17">
         <v>188658125</v>
       </c>
-      <c r="F58" s="17">
+      <c r="K58" s="17">
         <v>183545935</v>
       </c>
-      <c r="G58" s="17">
+      <c r="L58" s="17">
         <v>166958275</v>
       </c>
-      <c r="H58" s="17">
+      <c r="M58" s="17">
         <v>142855552</v>
       </c>
-      <c r="I58" s="17">
+      <c r="N58" s="17">
         <v>134547050</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
+        <v>56338342</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="15">
+        <v>107880867</v>
+      </c>
+      <c r="H59" s="15">
+        <v>112243337</v>
+      </c>
+      <c r="I59" s="15">
+        <v>126777465</v>
+      </c>
+      <c r="J59" s="15">
         <v>154758434</v>
       </c>
-      <c r="F59" s="15">
+      <c r="K59" s="15">
         <v>168077131</v>
       </c>
-      <c r="G59" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="17">
+        <v>20</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="17">
         <v>191146521</v>
       </c>
-      <c r="H60" s="17">
+      <c r="M60" s="17">
         <v>140133823</v>
       </c>
-      <c r="I60" s="17">
+      <c r="N60" s="17">
         <v>150125251</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="15">
+        <v>20</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="15">
         <v>71884525</v>
       </c>
-      <c r="I61" s="15">
+      <c r="N61" s="15">
         <v>82807468</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" s="17">
+        <v>20</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="17">
         <v>22502678</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1842,8 +2557,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1852,8 +2572,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1862,10 +2587,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1884,8 +2614,23 @@
       <c r="I66" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1894,10 +2639,15 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -1906,10 +2656,15 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -1928,10 +2683,25 @@
       <c r="I69" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11">
+        <v>0</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -1940,224 +2710,364 @@
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
+        <v>0</v>
+      </c>
+      <c r="F71" s="15">
+        <v>-340578</v>
+      </c>
+      <c r="G71" s="15">
+        <v>-451520</v>
+      </c>
+      <c r="H71" s="15">
+        <v>0</v>
+      </c>
+      <c r="I71" s="15">
+        <v>-740759</v>
+      </c>
+      <c r="J71" s="15">
         <v>-2332546</v>
       </c>
-      <c r="F71" s="15">
+      <c r="K71" s="15">
         <v>-2052261</v>
       </c>
-      <c r="G71" s="15">
+      <c r="L71" s="15">
         <v>-2219129</v>
       </c>
-      <c r="H71" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M71" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17">
+        <v>-1213531</v>
+      </c>
+      <c r="F72" s="17">
+        <v>-2899415</v>
+      </c>
+      <c r="G72" s="17">
+        <v>-4159234</v>
+      </c>
+      <c r="H72" s="17">
+        <v>-2919029</v>
+      </c>
+      <c r="I72" s="17">
+        <v>-9230684</v>
+      </c>
+      <c r="J72" s="17">
         <v>-5494008</v>
       </c>
-      <c r="F72" s="17">
+      <c r="K72" s="17">
         <v>-10944757</v>
       </c>
-      <c r="G72" s="17">
+      <c r="L72" s="17">
         <v>-5761335</v>
       </c>
-      <c r="H72" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M72" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
+        <v>-454732</v>
+      </c>
+      <c r="F73" s="15">
+        <v>-984420</v>
+      </c>
+      <c r="G73" s="15">
+        <v>-1176957</v>
+      </c>
+      <c r="H73" s="15">
+        <v>-2131819</v>
+      </c>
+      <c r="I73" s="15">
+        <v>-161479</v>
+      </c>
+      <c r="J73" s="15">
         <v>-1172554</v>
       </c>
-      <c r="F73" s="15">
+      <c r="K73" s="15">
         <v>-4165083</v>
       </c>
-      <c r="G73" s="15">
+      <c r="L73" s="15">
         <v>-1643748</v>
       </c>
-      <c r="H73" s="15">
+      <c r="M73" s="15">
         <v>-2030574</v>
       </c>
-      <c r="I73" s="15">
+      <c r="N73" s="15">
         <v>-4132348</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17">
+        <v>-322058</v>
+      </c>
+      <c r="F74" s="17">
+        <v>-875479</v>
+      </c>
+      <c r="G74" s="17">
+        <v>-1200205</v>
+      </c>
+      <c r="H74" s="17">
+        <v>-1833055</v>
+      </c>
+      <c r="I74" s="17">
+        <v>-665136</v>
+      </c>
+      <c r="J74" s="17">
         <v>-1592780</v>
       </c>
-      <c r="F74" s="17">
+      <c r="K74" s="17">
         <v>-5719630</v>
       </c>
-      <c r="G74" s="17">
+      <c r="L74" s="17">
         <v>-1855473</v>
       </c>
-      <c r="H74" s="17">
+      <c r="M74" s="17">
         <v>-2416412</v>
       </c>
-      <c r="I74" s="17">
+      <c r="N74" s="17">
         <v>-2197099</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15">
+        <v>-570153</v>
+      </c>
+      <c r="F75" s="15">
+        <v>-318878</v>
+      </c>
+      <c r="G75" s="15">
+        <v>-986569</v>
+      </c>
+      <c r="H75" s="15">
+        <v>-935189</v>
+      </c>
+      <c r="I75" s="15">
+        <v>-322511</v>
+      </c>
+      <c r="J75" s="15">
         <v>-729155</v>
       </c>
-      <c r="F75" s="15">
+      <c r="K75" s="15">
         <v>-1930632</v>
       </c>
-      <c r="G75" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L75" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="17">
+        <v>20</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="17">
         <v>-1295124</v>
       </c>
-      <c r="H76" s="17">
+      <c r="M76" s="17">
         <v>-523081</v>
       </c>
-      <c r="I76" s="17">
+      <c r="N76" s="17">
         <v>-1883958</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="15">
+        <v>20</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="15">
         <v>-12312925</v>
       </c>
-      <c r="I77" s="15">
+      <c r="N77" s="15">
         <v>10929388</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="17">
+        <v>20</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="17">
         <v>-3896</v>
       </c>
-      <c r="I78" s="17">
+      <c r="N78" s="17">
         <v>-23226735</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
+        <v>-2560474</v>
+      </c>
+      <c r="F79" s="11">
+        <v>-5418770</v>
+      </c>
+      <c r="G79" s="11">
+        <v>-7974485</v>
+      </c>
+      <c r="H79" s="11">
+        <v>-7819092</v>
+      </c>
+      <c r="I79" s="11">
+        <v>-11120569</v>
+      </c>
+      <c r="J79" s="11">
         <v>-11321043</v>
       </c>
-      <c r="F79" s="11">
+      <c r="K79" s="11">
         <v>-24812363</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>-12774809</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>-17286888</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>-20510752</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -2166,10 +3076,15 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2188,41 +3103,71 @@
       <c r="I81" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
+      </c>
+      <c r="L81" s="11">
+        <v>0</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C82" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19">
+        <v>0</v>
+      </c>
+      <c r="F82" s="19">
+        <v>0</v>
+      </c>
+      <c r="G82" s="19">
+        <v>0</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="C83" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>15</v>
+      <c r="E83" s="11">
+        <v>0</v>
       </c>
       <c r="F83" s="11">
         <v>0</v>
@@ -2230,36 +3175,66 @@
       <c r="G83" s="11">
         <v>0</v>
       </c>
-      <c r="H83" s="11">
-        <v>0</v>
+      <c r="H83" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I83" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="11">
+        <v>0</v>
+      </c>
+      <c r="L83" s="11">
+        <v>0</v>
+      </c>
+      <c r="M83" s="11">
+        <v>0</v>
+      </c>
+      <c r="N83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19">
+        <v>-2560474</v>
+      </c>
+      <c r="F84" s="19">
+        <v>-5418770</v>
+      </c>
+      <c r="G84" s="19">
+        <v>-7974485</v>
+      </c>
+      <c r="H84" s="19">
+        <v>-7819092</v>
+      </c>
+      <c r="I84" s="19">
+        <v>-11120569</v>
+      </c>
+      <c r="J84" s="19">
         <v>-11321043</v>
       </c>
-      <c r="F84" s="19">
+      <c r="K84" s="19">
         <v>-24812363</v>
       </c>
-      <c r="G84" s="19">
+      <c r="L84" s="19">
         <v>-12774809</v>
       </c>
-      <c r="H84" s="19">
+      <c r="M84" s="19">
         <v>-17286888</v>
       </c>
-      <c r="I84" s="19">
+      <c r="N84" s="19">
         <v>-20510752</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2268,8 +3243,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2278,8 +3258,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2288,10 +3273,15 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2310,8 +3300,23 @@
       <c r="I88" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2320,10 +3325,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -2332,10 +3342,15 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2354,10 +3369,25 @@
       <c r="I91" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11">
+        <v>0</v>
+      </c>
+      <c r="M91" s="11">
+        <v>0</v>
+      </c>
+      <c r="N91" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -2366,224 +3396,364 @@
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
+        <v>0</v>
+      </c>
+      <c r="F93" s="15">
+        <v>64079</v>
+      </c>
+      <c r="G93" s="15">
+        <v>143661</v>
+      </c>
+      <c r="H93" s="15">
+        <v>0</v>
+      </c>
+      <c r="I93" s="15">
+        <v>326612</v>
+      </c>
+      <c r="J93" s="15">
         <v>-834253</v>
       </c>
-      <c r="F93" s="15">
+      <c r="K93" s="15">
         <v>-356226</v>
       </c>
-      <c r="G93" s="15">
+      <c r="L93" s="15">
         <v>981335</v>
       </c>
-      <c r="H93" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I93" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M93" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N93" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17">
+        <v>4107254</v>
+      </c>
+      <c r="F94" s="17">
+        <v>7930448</v>
+      </c>
+      <c r="G94" s="17">
+        <v>12328062</v>
+      </c>
+      <c r="H94" s="17">
+        <v>5450613</v>
+      </c>
+      <c r="I94" s="17">
+        <v>6813333</v>
+      </c>
+      <c r="J94" s="17">
         <v>907252</v>
       </c>
-      <c r="F94" s="17">
+      <c r="K94" s="17">
         <v>3936716</v>
       </c>
-      <c r="G94" s="17">
+      <c r="L94" s="17">
         <v>3665574</v>
       </c>
-      <c r="H94" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M94" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>487022</v>
+      </c>
+      <c r="F95" s="15">
+        <v>439479</v>
+      </c>
+      <c r="G95" s="15">
+        <v>1273540</v>
+      </c>
+      <c r="H95" s="15">
+        <v>1748773</v>
+      </c>
+      <c r="I95" s="15">
+        <v>2330184</v>
+      </c>
+      <c r="J95" s="15">
         <v>3452527</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>2395707</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>2681412</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>1534058</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>-562778</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17">
+        <v>300477</v>
+      </c>
+      <c r="F96" s="17">
+        <v>240166</v>
+      </c>
+      <c r="G96" s="17">
+        <v>1143147</v>
+      </c>
+      <c r="H96" s="17">
+        <v>1025996</v>
+      </c>
+      <c r="I96" s="17">
+        <v>1295459</v>
+      </c>
+      <c r="J96" s="17">
         <v>1941164</v>
       </c>
-      <c r="F96" s="17">
+      <c r="K96" s="17">
         <v>-1134469</v>
       </c>
-      <c r="G96" s="17">
+      <c r="L96" s="17">
         <v>653409</v>
       </c>
-      <c r="H96" s="17">
+      <c r="M96" s="17">
         <v>-274293</v>
       </c>
-      <c r="I96" s="17">
+      <c r="N96" s="17">
         <v>1813614</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
+        <v>877010</v>
+      </c>
+      <c r="F97" s="15">
+        <v>-318878</v>
+      </c>
+      <c r="G97" s="15">
+        <v>1183131</v>
+      </c>
+      <c r="H97" s="15">
+        <v>1579174</v>
+      </c>
+      <c r="I97" s="15">
+        <v>2470143</v>
+      </c>
+      <c r="J97" s="15">
         <v>3156365</v>
       </c>
-      <c r="F97" s="15">
+      <c r="K97" s="15">
         <v>1433936</v>
       </c>
-      <c r="G97" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L97" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N97" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="17">
+        <v>20</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98" s="17">
         <v>4481515</v>
       </c>
-      <c r="H98" s="17">
+      <c r="M98" s="17">
         <v>775399</v>
       </c>
-      <c r="I98" s="17">
+      <c r="N98" s="17">
         <v>3715864</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="15">
+        <v>20</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" s="15">
         <v>3892866</v>
       </c>
-      <c r="I99" s="15">
+      <c r="N99" s="15">
         <v>27378843</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H100" s="17">
+        <v>20</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M100" s="17">
         <v>-4062</v>
       </c>
-      <c r="I100" s="17">
+      <c r="N100" s="17">
         <v>-22596435</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
+        <v>5771763</v>
+      </c>
+      <c r="F101" s="11">
+        <v>8355294</v>
+      </c>
+      <c r="G101" s="11">
+        <v>16071541</v>
+      </c>
+      <c r="H101" s="11">
+        <v>9804556</v>
+      </c>
+      <c r="I101" s="11">
+        <v>13235731</v>
+      </c>
+      <c r="J101" s="11">
         <v>8623055</v>
       </c>
-      <c r="F101" s="11">
+      <c r="K101" s="11">
         <v>6275664</v>
       </c>
-      <c r="G101" s="11">
+      <c r="L101" s="11">
         <v>12463245</v>
       </c>
-      <c r="H101" s="11">
+      <c r="M101" s="11">
         <v>5923968</v>
       </c>
-      <c r="I101" s="11">
+      <c r="N101" s="11">
         <v>9749108</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -2592,10 +3762,15 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -2614,26 +3789,56 @@
       <c r="I103" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="11">
+        <v>0</v>
+      </c>
+      <c r="K103" s="11">
+        <v>0</v>
+      </c>
+      <c r="L103" s="11">
+        <v>0</v>
+      </c>
+      <c r="M103" s="11">
+        <v>0</v>
+      </c>
+      <c r="N103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19">
+        <v>5771763</v>
+      </c>
+      <c r="F104" s="19">
+        <v>8355294</v>
+      </c>
+      <c r="G104" s="19">
+        <v>16071541</v>
+      </c>
+      <c r="H104" s="19">
+        <v>9804556</v>
+      </c>
+      <c r="I104" s="19">
+        <v>13235731</v>
+      </c>
+      <c r="J104" s="19">
         <v>8623055</v>
       </c>
-      <c r="F104" s="19">
+      <c r="K104" s="19">
         <v>6275664</v>
       </c>
-      <c r="G104" s="19">
+      <c r="L104" s="19">
         <v>12463245</v>
       </c>
-      <c r="H104" s="19">
+      <c r="M104" s="19">
         <v>5923968</v>
       </c>
-      <c r="I104" s="19">
+      <c r="N104" s="19">
         <v>9749108</v>
       </c>
     </row>

--- a/database/industries/methanol/shekhark/product/quarterly_seprated.xlsx
+++ b/database/industries/methanol/shekhark/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E5A4D1-87D2-423B-923E-27BD853A2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7050DCD-B137-4ADE-9EAD-CF1D4C224978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -679,12 +679,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -699,7 +699,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -748,7 +748,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -797,7 +797,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -849,7 +849,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
@@ -929,29 +929,29 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15">
-        <v>0</v>
+        <v>30922</v>
       </c>
       <c r="F13" s="15">
-        <v>30922</v>
+        <v>26952</v>
       </c>
       <c r="G13" s="15">
-        <v>26952</v>
+        <v>0</v>
       </c>
       <c r="H13" s="15">
-        <v>0</v>
+        <v>33839</v>
       </c>
       <c r="I13" s="15">
-        <v>33839</v>
-      </c>
-      <c r="J13" s="15">
         <v>34479</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="J13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="15">
         <v>32002</v>
       </c>
+      <c r="L13" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M13" s="15" t="s">
         <v>20</v>
       </c>
@@ -959,7 +959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
@@ -968,29 +968,29 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17">
-        <v>149065</v>
+        <v>191469</v>
       </c>
       <c r="F14" s="17">
-        <v>191469</v>
+        <v>216913</v>
       </c>
       <c r="G14" s="17">
-        <v>216913</v>
+        <v>120994</v>
       </c>
       <c r="H14" s="17">
-        <v>120994</v>
+        <v>193858</v>
       </c>
       <c r="I14" s="17">
-        <v>193858</v>
-      </c>
-      <c r="J14" s="17">
         <v>75828</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="J14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="17">
         <v>107272</v>
       </c>
+      <c r="L14" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="M14" s="17" t="s">
         <v>20</v>
       </c>
@@ -998,7 +998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>23</v>
       </c>
@@ -1007,37 +1007,37 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>17667</v>
+        <v>19292</v>
       </c>
       <c r="F15" s="15">
-        <v>19292</v>
+        <v>21972</v>
       </c>
       <c r="G15" s="15">
-        <v>21972</v>
+        <v>47304</v>
       </c>
       <c r="H15" s="15">
-        <v>47304</v>
+        <v>17862</v>
       </c>
       <c r="I15" s="15">
-        <v>17862</v>
-      </c>
-      <c r="J15" s="15">
         <v>25479</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>20</v>
+      <c r="J15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="15">
+        <v>25721</v>
       </c>
       <c r="L15" s="15">
-        <v>25721</v>
+        <v>25668</v>
       </c>
       <c r="M15" s="15">
-        <v>25668</v>
+        <v>26760</v>
       </c>
       <c r="N15" s="15">
-        <v>26760</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33136</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
@@ -1046,37 +1046,37 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17">
-        <v>10777</v>
+        <v>14672</v>
       </c>
       <c r="F16" s="17">
-        <v>14672</v>
+        <v>19885</v>
       </c>
       <c r="G16" s="17">
-        <v>19885</v>
+        <v>34105</v>
       </c>
       <c r="H16" s="17">
-        <v>34105</v>
+        <v>14000</v>
       </c>
       <c r="I16" s="17">
-        <v>14000</v>
-      </c>
-      <c r="J16" s="17">
         <v>18732</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>20</v>
+      <c r="J16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="17">
+        <v>15027</v>
       </c>
       <c r="L16" s="17">
-        <v>15027</v>
+        <v>14995</v>
       </c>
       <c r="M16" s="17">
-        <v>14995</v>
+        <v>29809</v>
       </c>
       <c r="N16" s="17">
-        <v>29809</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15932</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>25</v>
       </c>
@@ -1085,26 +1085,26 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
-        <v>25687</v>
+        <v>0</v>
       </c>
       <c r="F17" s="15">
-        <v>0</v>
+        <v>20112</v>
       </c>
       <c r="G17" s="15">
-        <v>20112</v>
+        <v>22401</v>
       </c>
       <c r="H17" s="15">
-        <v>22401</v>
+        <v>22028</v>
       </c>
       <c r="I17" s="15">
-        <v>22028</v>
+        <v>25107</v>
       </c>
       <c r="J17" s="15">
-        <v>25107</v>
-      </c>
-      <c r="K17" s="15">
         <v>20018</v>
       </c>
+      <c r="K17" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="L17" s="15" t="s">
         <v>20</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>26</v>
       </c>
@@ -1141,20 +1141,20 @@
       <c r="J18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>20</v>
+      <c r="K18" s="17">
+        <v>30221</v>
       </c>
       <c r="L18" s="17">
-        <v>30221</v>
+        <v>9266</v>
       </c>
       <c r="M18" s="17">
-        <v>9266</v>
+        <v>37301</v>
       </c>
       <c r="N18" s="17">
-        <v>37301</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28768</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1183,17 +1183,17 @@
       <c r="K19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="15" t="s">
-        <v>20</v>
+      <c r="L19" s="15">
+        <v>225442</v>
       </c>
       <c r="M19" s="15">
-        <v>225442</v>
+        <v>198647</v>
       </c>
       <c r="N19" s="15">
-        <v>198647</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>185789</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>28</v>
       </c>
@@ -1222,54 +1222,54 @@
       <c r="K20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="17" t="s">
-        <v>20</v>
+      <c r="L20" s="17">
+        <v>0</v>
       </c>
       <c r="M20" s="17">
-        <v>0</v>
+        <v>28010</v>
       </c>
       <c r="N20" s="17">
-        <v>28010</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31045</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>203196</v>
+        <v>256355</v>
       </c>
       <c r="F21" s="11">
-        <v>256355</v>
+        <v>305834</v>
       </c>
       <c r="G21" s="11">
-        <v>305834</v>
+        <v>224804</v>
       </c>
       <c r="H21" s="11">
-        <v>224804</v>
+        <v>281587</v>
       </c>
       <c r="I21" s="11">
-        <v>281587</v>
+        <v>179625</v>
       </c>
       <c r="J21" s="11">
-        <v>179625</v>
+        <v>20018</v>
       </c>
       <c r="K21" s="11">
-        <v>20018</v>
+        <v>210243</v>
       </c>
       <c r="L21" s="11">
-        <v>210243</v>
+        <v>275371</v>
       </c>
       <c r="M21" s="11">
-        <v>275371</v>
+        <v>320527</v>
       </c>
       <c r="N21" s="11">
-        <v>320527</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>294670</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>32</v>
       </c>
@@ -1337,8 +1337,8 @@
       <c r="F24" s="19">
         <v>0</v>
       </c>
-      <c r="G24" s="19">
-        <v>0</v>
+      <c r="G24" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>20</v>
@@ -1362,7 +1362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
@@ -1374,20 +1374,20 @@
       <c r="F25" s="11">
         <v>0</v>
       </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
+      <c r="G25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>20</v>
+      <c r="K25" s="11">
+        <v>0</v>
       </c>
       <c r="L25" s="11">
         <v>0</v>
@@ -1399,44 +1399,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
-        <v>203196</v>
+        <v>256355</v>
       </c>
       <c r="F26" s="19">
-        <v>256355</v>
+        <v>305834</v>
       </c>
       <c r="G26" s="19">
-        <v>305834</v>
+        <v>224804</v>
       </c>
       <c r="H26" s="19">
-        <v>224804</v>
+        <v>281587</v>
       </c>
       <c r="I26" s="19">
-        <v>281587</v>
+        <v>179625</v>
       </c>
       <c r="J26" s="19">
-        <v>179625</v>
+        <v>20018</v>
       </c>
       <c r="K26" s="19">
-        <v>20018</v>
+        <v>210243</v>
       </c>
       <c r="L26" s="19">
-        <v>210243</v>
+        <v>275371</v>
       </c>
       <c r="M26" s="19">
-        <v>275371</v>
+        <v>320527</v>
       </c>
       <c r="N26" s="19">
-        <v>320527</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>294670</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1451,7 +1451,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1466,7 +1466,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1481,7 +1481,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1533,7 +1533,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>37</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>18</v>
       </c>
@@ -1613,29 +1613,29 @@
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>0</v>
+        <v>404657</v>
       </c>
       <c r="F35" s="15">
-        <v>404657</v>
+        <v>595181</v>
       </c>
       <c r="G35" s="15">
-        <v>595181</v>
+        <v>0</v>
       </c>
       <c r="H35" s="15">
-        <v>0</v>
+        <v>1067371</v>
       </c>
       <c r="I35" s="15">
-        <v>1067371</v>
-      </c>
-      <c r="J35" s="15">
         <v>1498293</v>
       </c>
-      <c r="K35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="15">
+      <c r="J35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="15">
         <v>3200464</v>
       </c>
+      <c r="L35" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M35" s="15" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>21</v>
       </c>
@@ -1652,29 +1652,29 @@
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17">
-        <v>5320785</v>
+        <v>10829863</v>
       </c>
       <c r="F36" s="17">
-        <v>10829863</v>
+        <v>16487296</v>
       </c>
       <c r="G36" s="17">
-        <v>16487296</v>
+        <v>8369642</v>
       </c>
       <c r="H36" s="17">
-        <v>8369642</v>
+        <v>16044017</v>
       </c>
       <c r="I36" s="17">
-        <v>16044017</v>
-      </c>
-      <c r="J36" s="17">
         <v>6401260</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="17">
+      <c r="J36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="17">
         <v>9426909</v>
       </c>
+      <c r="L36" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="M36" s="17" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>23</v>
       </c>
@@ -1691,37 +1691,37 @@
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>941754</v>
+        <v>1423899</v>
       </c>
       <c r="F37" s="15">
-        <v>1423899</v>
+        <v>2450497</v>
       </c>
       <c r="G37" s="15">
-        <v>2450497</v>
+        <v>3880592</v>
       </c>
       <c r="H37" s="15">
-        <v>3880592</v>
+        <v>2491663</v>
       </c>
       <c r="I37" s="15">
-        <v>2491663</v>
-      </c>
-      <c r="J37" s="15">
         <v>4625080</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>20</v>
+      <c r="J37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="15">
+        <v>4325160</v>
       </c>
       <c r="L37" s="15">
-        <v>4325160</v>
+        <v>3564632</v>
       </c>
       <c r="M37" s="15">
-        <v>3564632</v>
+        <v>3569570</v>
       </c>
       <c r="N37" s="15">
-        <v>3569570</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6089180</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>24</v>
       </c>
@@ -1730,37 +1730,37 @@
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17">
-        <v>622535</v>
+        <v>1115645</v>
       </c>
       <c r="F38" s="17">
-        <v>1115645</v>
+        <v>2343352</v>
       </c>
       <c r="G38" s="17">
-        <v>2343352</v>
+        <v>2859051</v>
       </c>
       <c r="H38" s="17">
-        <v>2859051</v>
+        <v>1960595</v>
       </c>
       <c r="I38" s="17">
-        <v>1960595</v>
-      </c>
-      <c r="J38" s="17">
         <v>3533944</v>
       </c>
-      <c r="K38" s="17" t="s">
-        <v>20</v>
+      <c r="J38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="17">
+        <v>2508882</v>
       </c>
       <c r="L38" s="17">
-        <v>2508882</v>
+        <v>2142119</v>
       </c>
       <c r="M38" s="17">
-        <v>2142119</v>
+        <v>4010713</v>
       </c>
       <c r="N38" s="17">
-        <v>4010713</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2853296</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>25</v>
       </c>
@@ -1769,26 +1769,26 @@
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>1447163</v>
+        <v>0</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>2169700</v>
       </c>
       <c r="G39" s="15">
-        <v>2169700</v>
+        <v>2514363</v>
       </c>
       <c r="H39" s="15">
-        <v>2514363</v>
+        <v>2792654</v>
       </c>
       <c r="I39" s="15">
-        <v>2792654</v>
+        <v>3885520</v>
       </c>
       <c r="J39" s="15">
-        <v>3885520</v>
-      </c>
-      <c r="K39" s="15">
         <v>3364568</v>
       </c>
+      <c r="K39" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="L39" s="15" t="s">
         <v>20</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>26</v>
       </c>
@@ -1825,20 +1825,20 @@
       <c r="J40" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="17" t="s">
-        <v>20</v>
+      <c r="K40" s="17">
+        <v>5776639</v>
       </c>
       <c r="L40" s="17">
-        <v>5776639</v>
+        <v>1298480</v>
       </c>
       <c r="M40" s="17">
-        <v>1298480</v>
+        <v>5599822</v>
       </c>
       <c r="N40" s="17">
-        <v>5599822</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5333789</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>27</v>
       </c>
@@ -1867,17 +1867,17 @@
       <c r="K41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="15" t="s">
-        <v>20</v>
+      <c r="L41" s="15">
+        <v>16205791</v>
       </c>
       <c r="M41" s="15">
-        <v>16205791</v>
+        <v>16449455</v>
       </c>
       <c r="N41" s="15">
-        <v>16449455</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17592268</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>28</v>
       </c>
@@ -1906,54 +1906,54 @@
       <c r="K42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="17" t="s">
-        <v>20</v>
+      <c r="L42" s="17">
+        <v>-166</v>
       </c>
       <c r="M42" s="17">
-        <v>-166</v>
+        <v>630300</v>
       </c>
       <c r="N42" s="17">
-        <v>630300</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1221025</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>8332237</v>
+        <v>13774064</v>
       </c>
       <c r="F43" s="11">
-        <v>13774064</v>
+        <v>24046026</v>
       </c>
       <c r="G43" s="11">
-        <v>24046026</v>
+        <v>17623648</v>
       </c>
       <c r="H43" s="11">
-        <v>17623648</v>
+        <v>24356300</v>
       </c>
       <c r="I43" s="11">
-        <v>24356300</v>
+        <v>19944097</v>
       </c>
       <c r="J43" s="11">
-        <v>19944097</v>
+        <v>3364568</v>
       </c>
       <c r="K43" s="11">
-        <v>3364568</v>
+        <v>25238054</v>
       </c>
       <c r="L43" s="11">
-        <v>25238054</v>
+        <v>23210856</v>
       </c>
       <c r="M43" s="11">
-        <v>23210856</v>
+        <v>30259860</v>
       </c>
       <c r="N43" s="11">
-        <v>30259860</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33089558</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>40</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>31</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>32</v>
       </c>
@@ -2021,8 +2021,8 @@
       <c r="F46" s="19">
         <v>0</v>
       </c>
-      <c r="G46" s="19">
-        <v>0</v>
+      <c r="G46" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>20</v>
@@ -2046,7 +2046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>34</v>
       </c>
@@ -2060,20 +2060,20 @@
       <c r="F47" s="11">
         <v>0</v>
       </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="11">
-        <v>0</v>
+      <c r="G47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>20</v>
+      <c r="K47" s="11">
+        <v>0</v>
       </c>
       <c r="L47" s="11">
         <v>0</v>
@@ -2085,44 +2085,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>8332237</v>
+        <v>13774064</v>
       </c>
       <c r="F48" s="19">
-        <v>13774064</v>
+        <v>24046026</v>
       </c>
       <c r="G48" s="19">
-        <v>24046026</v>
+        <v>17623648</v>
       </c>
       <c r="H48" s="19">
-        <v>17623648</v>
+        <v>24356300</v>
       </c>
       <c r="I48" s="19">
-        <v>24356300</v>
+        <v>19944097</v>
       </c>
       <c r="J48" s="19">
-        <v>19944097</v>
+        <v>3364568</v>
       </c>
       <c r="K48" s="19">
-        <v>3364568</v>
+        <v>25238054</v>
       </c>
       <c r="L48" s="19">
-        <v>25238054</v>
+        <v>23210856</v>
       </c>
       <c r="M48" s="19">
-        <v>23210856</v>
+        <v>30259860</v>
       </c>
       <c r="N48" s="19">
-        <v>30259860</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33089558</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2137,7 +2137,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2152,7 +2152,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2167,7 +2167,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>41</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2219,7 +2219,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>42</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>18</v>
       </c>
@@ -2244,30 +2244,30 @@
         <v>43</v>
       </c>
       <c r="D55" s="15"/>
-      <c r="E55" s="15" t="s">
-        <v>20</v>
+      <c r="E55" s="15">
+        <v>13086379</v>
       </c>
       <c r="F55" s="15">
-        <v>13086379</v>
-      </c>
-      <c r="G55" s="15">
         <v>22082999</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>20</v>
+      <c r="G55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="15">
+        <v>31542628</v>
       </c>
       <c r="I55" s="15">
-        <v>31542628</v>
+        <v>43455234</v>
       </c>
       <c r="J55" s="15">
-        <v>43455234</v>
+        <v>66981359</v>
       </c>
       <c r="K55" s="15">
-        <v>66981359</v>
-      </c>
-      <c r="L55" s="15">
         <v>100008249</v>
       </c>
+      <c r="L55" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M55" s="15" t="s">
         <v>20</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>21</v>
       </c>
@@ -2284,29 +2284,29 @@
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17">
-        <v>35694395</v>
+        <v>56561966</v>
       </c>
       <c r="F56" s="17">
-        <v>56561966</v>
+        <v>76008796</v>
       </c>
       <c r="G56" s="17">
-        <v>76008796</v>
+        <v>69174025</v>
       </c>
       <c r="H56" s="17">
-        <v>69174025</v>
+        <v>82761697</v>
       </c>
       <c r="I56" s="17">
-        <v>82761697</v>
+        <v>84418157</v>
       </c>
       <c r="J56" s="17">
-        <v>84418157</v>
+        <v>79384791</v>
       </c>
       <c r="K56" s="17">
-        <v>79384791</v>
-      </c>
-      <c r="L56" s="17">
         <v>87878561</v>
       </c>
+      <c r="L56" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="M56" s="17" t="s">
         <v>20</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>23</v>
       </c>
@@ -2323,37 +2323,37 @@
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>53305824</v>
+        <v>73807744</v>
       </c>
       <c r="F57" s="15">
-        <v>73807744</v>
+        <v>111528172</v>
       </c>
       <c r="G57" s="15">
-        <v>111528172</v>
+        <v>82035177</v>
       </c>
       <c r="H57" s="15">
-        <v>82035177</v>
+        <v>139495185</v>
       </c>
       <c r="I57" s="15">
-        <v>139495185</v>
+        <v>181525217</v>
       </c>
       <c r="J57" s="15">
-        <v>181525217</v>
+        <v>181633676</v>
       </c>
       <c r="K57" s="15">
-        <v>181633676</v>
+        <v>168156759</v>
       </c>
       <c r="L57" s="15">
-        <v>168156759</v>
+        <v>138874552</v>
       </c>
       <c r="M57" s="15">
-        <v>138874552</v>
+        <v>133392003</v>
       </c>
       <c r="N57" s="15">
-        <v>133392003</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>183763279</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>24</v>
       </c>
@@ -2362,37 +2362,37 @@
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17">
-        <v>57765148</v>
+        <v>76039054</v>
       </c>
       <c r="F58" s="17">
-        <v>76039054</v>
+        <v>117845210</v>
       </c>
       <c r="G58" s="17">
-        <v>117845210</v>
+        <v>83830846</v>
       </c>
       <c r="H58" s="17">
-        <v>83830846</v>
+        <v>140042500</v>
       </c>
       <c r="I58" s="17">
-        <v>140042500</v>
+        <v>188658125</v>
       </c>
       <c r="J58" s="17">
-        <v>188658125</v>
+        <v>183545935</v>
       </c>
       <c r="K58" s="17">
-        <v>183545935</v>
+        <v>166958275</v>
       </c>
       <c r="L58" s="17">
-        <v>166958275</v>
+        <v>142855552</v>
       </c>
       <c r="M58" s="17">
-        <v>142855552</v>
+        <v>134547050</v>
       </c>
       <c r="N58" s="17">
-        <v>134547050</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>179092142</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>25</v>
       </c>
@@ -2400,27 +2400,27 @@
         <v>43</v>
       </c>
       <c r="D59" s="15"/>
-      <c r="E59" s="15">
-        <v>56338342</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>20</v>
+      <c r="E59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="15">
+        <v>107880867</v>
       </c>
       <c r="G59" s="15">
-        <v>107880867</v>
+        <v>112243337</v>
       </c>
       <c r="H59" s="15">
-        <v>112243337</v>
+        <v>126777465</v>
       </c>
       <c r="I59" s="15">
-        <v>126777465</v>
+        <v>154758434</v>
       </c>
       <c r="J59" s="15">
-        <v>154758434</v>
-      </c>
-      <c r="K59" s="15">
         <v>168077131</v>
       </c>
+      <c r="K59" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="L59" s="15" t="s">
         <v>20</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>26</v>
       </c>
@@ -2457,20 +2457,20 @@
       <c r="J60" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="17" t="s">
-        <v>20</v>
+      <c r="K60" s="17">
+        <v>191146521</v>
       </c>
       <c r="L60" s="17">
-        <v>191146521</v>
+        <v>140133823</v>
       </c>
       <c r="M60" s="17">
-        <v>140133823</v>
+        <v>150125251</v>
       </c>
       <c r="N60" s="17">
-        <v>150125251</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>185407015</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>27</v>
       </c>
@@ -2499,17 +2499,17 @@
       <c r="K61" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L61" s="15" t="s">
-        <v>20</v>
+      <c r="L61" s="15">
+        <v>71884525</v>
       </c>
       <c r="M61" s="15">
-        <v>71884525</v>
+        <v>82807468</v>
       </c>
       <c r="N61" s="15">
-        <v>82807468</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>94689503</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="16" t="s">
         <v>28</v>
       </c>
@@ -2541,14 +2541,14 @@
       <c r="L62" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="17" t="s">
-        <v>20</v>
+      <c r="M62" s="17">
+        <v>22502678</v>
       </c>
       <c r="N62" s="17">
-        <v>22502678</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39330810</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2563,7 +2563,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2578,7 +2578,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2593,7 +2593,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>45</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2645,7 +2645,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>46</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>47</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>48</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>18</v>
       </c>
@@ -2725,29 +2725,29 @@
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>0</v>
+        <v>-340578</v>
       </c>
       <c r="F71" s="15">
-        <v>-340578</v>
+        <v>-451520</v>
       </c>
       <c r="G71" s="15">
-        <v>-451520</v>
+        <v>0</v>
       </c>
       <c r="H71" s="15">
-        <v>0</v>
+        <v>-740759</v>
       </c>
       <c r="I71" s="15">
-        <v>-740759</v>
+        <v>-2332546</v>
       </c>
       <c r="J71" s="15">
-        <v>-2332546</v>
+        <v>-2052261</v>
       </c>
       <c r="K71" s="15">
-        <v>-2052261</v>
-      </c>
-      <c r="L71" s="15">
         <v>-2219129</v>
       </c>
+      <c r="L71" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M71" s="15" t="s">
         <v>20</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
         <v>21</v>
       </c>
@@ -2764,29 +2764,29 @@
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17">
-        <v>-1213531</v>
+        <v>-2899415</v>
       </c>
       <c r="F72" s="17">
-        <v>-2899415</v>
+        <v>-4159234</v>
       </c>
       <c r="G72" s="17">
-        <v>-4159234</v>
+        <v>-2919029</v>
       </c>
       <c r="H72" s="17">
-        <v>-2919029</v>
+        <v>-9230684</v>
       </c>
       <c r="I72" s="17">
-        <v>-9230684</v>
+        <v>-5494008</v>
       </c>
       <c r="J72" s="17">
-        <v>-5494008</v>
+        <v>-10944757</v>
       </c>
       <c r="K72" s="17">
-        <v>-10944757</v>
-      </c>
-      <c r="L72" s="17">
         <v>-5761335</v>
       </c>
+      <c r="L72" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="M72" s="17" t="s">
         <v>20</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>23</v>
       </c>
@@ -2803,37 +2803,37 @@
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>-454732</v>
+        <v>-984420</v>
       </c>
       <c r="F73" s="15">
-        <v>-984420</v>
+        <v>-1176957</v>
       </c>
       <c r="G73" s="15">
-        <v>-1176957</v>
+        <v>-2131819</v>
       </c>
       <c r="H73" s="15">
-        <v>-2131819</v>
+        <v>-161479</v>
       </c>
       <c r="I73" s="15">
-        <v>-161479</v>
+        <v>-1172554</v>
       </c>
       <c r="J73" s="15">
-        <v>-1172554</v>
+        <v>-4165083</v>
       </c>
       <c r="K73" s="15">
-        <v>-4165083</v>
+        <v>-1643748</v>
       </c>
       <c r="L73" s="15">
-        <v>-1643748</v>
+        <v>-2030574</v>
       </c>
       <c r="M73" s="15">
-        <v>-2030574</v>
+        <v>-4132348</v>
       </c>
       <c r="N73" s="15">
-        <v>-4132348</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2591639</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="16" t="s">
         <v>24</v>
       </c>
@@ -2842,37 +2842,37 @@
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17">
-        <v>-322058</v>
+        <v>-875479</v>
       </c>
       <c r="F74" s="17">
-        <v>-875479</v>
+        <v>-1200205</v>
       </c>
       <c r="G74" s="17">
-        <v>-1200205</v>
+        <v>-1833055</v>
       </c>
       <c r="H74" s="17">
-        <v>-1833055</v>
+        <v>-665136</v>
       </c>
       <c r="I74" s="17">
-        <v>-665136</v>
+        <v>-1592780</v>
       </c>
       <c r="J74" s="17">
-        <v>-1592780</v>
+        <v>-5719630</v>
       </c>
       <c r="K74" s="17">
-        <v>-5719630</v>
+        <v>-1855473</v>
       </c>
       <c r="L74" s="17">
-        <v>-1855473</v>
+        <v>-2416412</v>
       </c>
       <c r="M74" s="17">
-        <v>-2416412</v>
+        <v>-2197099</v>
       </c>
       <c r="N74" s="17">
-        <v>-2197099</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1167210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>25</v>
       </c>
@@ -2881,26 +2881,26 @@
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15">
-        <v>-570153</v>
+        <v>-318878</v>
       </c>
       <c r="F75" s="15">
-        <v>-318878</v>
+        <v>-986569</v>
       </c>
       <c r="G75" s="15">
-        <v>-986569</v>
+        <v>-935189</v>
       </c>
       <c r="H75" s="15">
-        <v>-935189</v>
+        <v>-322511</v>
       </c>
       <c r="I75" s="15">
-        <v>-322511</v>
+        <v>-729155</v>
       </c>
       <c r="J75" s="15">
-        <v>-729155</v>
-      </c>
-      <c r="K75" s="15">
         <v>-1930632</v>
       </c>
+      <c r="K75" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="L75" s="15" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="16" t="s">
         <v>26</v>
       </c>
@@ -2937,20 +2937,20 @@
       <c r="J76" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="17" t="s">
-        <v>20</v>
+      <c r="K76" s="17">
+        <v>-1295124</v>
       </c>
       <c r="L76" s="17">
-        <v>-1295124</v>
+        <v>-523081</v>
       </c>
       <c r="M76" s="17">
-        <v>-523081</v>
+        <v>-1883958</v>
       </c>
       <c r="N76" s="17">
-        <v>-1883958</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5210879</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>27</v>
       </c>
@@ -2979,17 +2979,17 @@
       <c r="K77" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L77" s="15" t="s">
-        <v>20</v>
+      <c r="L77" s="15">
+        <v>-12312925</v>
       </c>
       <c r="M77" s="15">
-        <v>-12312925</v>
+        <v>10929388</v>
       </c>
       <c r="N77" s="15">
-        <v>10929388</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-27088098</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="16" t="s">
         <v>28</v>
       </c>
@@ -3018,54 +3018,54 @@
       <c r="K78" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L78" s="17" t="s">
-        <v>20</v>
+      <c r="L78" s="17">
+        <v>-3896</v>
       </c>
       <c r="M78" s="17">
-        <v>-3896</v>
+        <v>-23226735</v>
       </c>
       <c r="N78" s="17">
-        <v>-23226735</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19671532</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>-2560474</v>
+        <v>-5418770</v>
       </c>
       <c r="F79" s="11">
-        <v>-5418770</v>
+        <v>-7974485</v>
       </c>
       <c r="G79" s="11">
-        <v>-7974485</v>
+        <v>-7819092</v>
       </c>
       <c r="H79" s="11">
-        <v>-7819092</v>
+        <v>-11120569</v>
       </c>
       <c r="I79" s="11">
-        <v>-11120569</v>
+        <v>-11321043</v>
       </c>
       <c r="J79" s="11">
-        <v>-11321043</v>
+        <v>-24812363</v>
       </c>
       <c r="K79" s="11">
-        <v>-24812363</v>
+        <v>-12774809</v>
       </c>
       <c r="L79" s="11">
-        <v>-12774809</v>
+        <v>-17286888</v>
       </c>
       <c r="M79" s="11">
-        <v>-17286888</v>
+        <v>-20510752</v>
       </c>
       <c r="N79" s="11">
-        <v>-20510752</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-16386294</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>50</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>51</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="18" t="s">
         <v>32</v>
       </c>
@@ -3133,8 +3133,8 @@
       <c r="F82" s="19">
         <v>0</v>
       </c>
-      <c r="G82" s="19">
-        <v>0</v>
+      <c r="G82" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="H82" s="19" t="s">
         <v>20</v>
@@ -3158,7 +3158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>34</v>
       </c>
@@ -3172,17 +3172,17 @@
       <c r="F83" s="11">
         <v>0</v>
       </c>
-      <c r="G83" s="11">
-        <v>0</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>20</v>
+      <c r="G83" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0</v>
       </c>
       <c r="K83" s="11">
         <v>0</v>
@@ -3197,44 +3197,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19">
-        <v>-2560474</v>
+        <v>-5418770</v>
       </c>
       <c r="F84" s="19">
-        <v>-5418770</v>
+        <v>-7974485</v>
       </c>
       <c r="G84" s="19">
-        <v>-7974485</v>
+        <v>-7819092</v>
       </c>
       <c r="H84" s="19">
-        <v>-7819092</v>
+        <v>-11120569</v>
       </c>
       <c r="I84" s="19">
-        <v>-11120569</v>
+        <v>-11321043</v>
       </c>
       <c r="J84" s="19">
-        <v>-11321043</v>
+        <v>-24812363</v>
       </c>
       <c r="K84" s="19">
-        <v>-24812363</v>
+        <v>-12774809</v>
       </c>
       <c r="L84" s="19">
-        <v>-12774809</v>
+        <v>-17286888</v>
       </c>
       <c r="M84" s="19">
-        <v>-17286888</v>
+        <v>-20510752</v>
       </c>
       <c r="N84" s="19">
-        <v>-20510752</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-16386294</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3249,7 +3249,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3264,7 +3264,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3279,7 +3279,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>52</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3331,7 +3331,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>53</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>54</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>55</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>18</v>
       </c>
@@ -3411,29 +3411,29 @@
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>0</v>
+        <v>64079</v>
       </c>
       <c r="F93" s="15">
-        <v>64079</v>
+        <v>143661</v>
       </c>
       <c r="G93" s="15">
-        <v>143661</v>
+        <v>0</v>
       </c>
       <c r="H93" s="15">
-        <v>0</v>
+        <v>326612</v>
       </c>
       <c r="I93" s="15">
-        <v>326612</v>
+        <v>-834253</v>
       </c>
       <c r="J93" s="15">
-        <v>-834253</v>
+        <v>-356226</v>
       </c>
       <c r="K93" s="15">
-        <v>-356226</v>
-      </c>
-      <c r="L93" s="15">
         <v>981335</v>
       </c>
+      <c r="L93" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M93" s="15" t="s">
         <v>20</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="16" t="s">
         <v>21</v>
       </c>
@@ -3450,29 +3450,29 @@
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17">
-        <v>4107254</v>
+        <v>7930448</v>
       </c>
       <c r="F94" s="17">
-        <v>7930448</v>
+        <v>12328062</v>
       </c>
       <c r="G94" s="17">
-        <v>12328062</v>
+        <v>5450613</v>
       </c>
       <c r="H94" s="17">
-        <v>5450613</v>
+        <v>6813333</v>
       </c>
       <c r="I94" s="17">
-        <v>6813333</v>
+        <v>907252</v>
       </c>
       <c r="J94" s="17">
-        <v>907252</v>
+        <v>3936716</v>
       </c>
       <c r="K94" s="17">
-        <v>3936716</v>
-      </c>
-      <c r="L94" s="17">
         <v>3665574</v>
       </c>
+      <c r="L94" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="M94" s="17" t="s">
         <v>20</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>23</v>
       </c>
@@ -3489,37 +3489,37 @@
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>487022</v>
+        <v>439479</v>
       </c>
       <c r="F95" s="15">
-        <v>439479</v>
+        <v>1273540</v>
       </c>
       <c r="G95" s="15">
-        <v>1273540</v>
+        <v>1748773</v>
       </c>
       <c r="H95" s="15">
-        <v>1748773</v>
+        <v>2330184</v>
       </c>
       <c r="I95" s="15">
-        <v>2330184</v>
+        <v>3452527</v>
       </c>
       <c r="J95" s="15">
-        <v>3452527</v>
+        <v>2395707</v>
       </c>
       <c r="K95" s="15">
-        <v>2395707</v>
+        <v>2681412</v>
       </c>
       <c r="L95" s="15">
-        <v>2681412</v>
+        <v>1534058</v>
       </c>
       <c r="M95" s="15">
-        <v>1534058</v>
+        <v>-562778</v>
       </c>
       <c r="N95" s="15">
-        <v>-562778</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3497541</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="16" t="s">
         <v>24</v>
       </c>
@@ -3528,37 +3528,37 @@
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17">
-        <v>300477</v>
+        <v>240166</v>
       </c>
       <c r="F96" s="17">
-        <v>240166</v>
+        <v>1143147</v>
       </c>
       <c r="G96" s="17">
-        <v>1143147</v>
+        <v>1025996</v>
       </c>
       <c r="H96" s="17">
-        <v>1025996</v>
+        <v>1295459</v>
       </c>
       <c r="I96" s="17">
-        <v>1295459</v>
+        <v>1941164</v>
       </c>
       <c r="J96" s="17">
-        <v>1941164</v>
+        <v>-1134469</v>
       </c>
       <c r="K96" s="17">
-        <v>-1134469</v>
+        <v>653409</v>
       </c>
       <c r="L96" s="17">
-        <v>653409</v>
+        <v>-274293</v>
       </c>
       <c r="M96" s="17">
-        <v>-274293</v>
+        <v>1813614</v>
       </c>
       <c r="N96" s="17">
-        <v>1813614</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1686086</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>25</v>
       </c>
@@ -3567,26 +3567,26 @@
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
-        <v>877010</v>
+        <v>-318878</v>
       </c>
       <c r="F97" s="15">
-        <v>-318878</v>
+        <v>1183131</v>
       </c>
       <c r="G97" s="15">
-        <v>1183131</v>
+        <v>1579174</v>
       </c>
       <c r="H97" s="15">
-        <v>1579174</v>
+        <v>2470143</v>
       </c>
       <c r="I97" s="15">
-        <v>2470143</v>
+        <v>3156365</v>
       </c>
       <c r="J97" s="15">
-        <v>3156365</v>
-      </c>
-      <c r="K97" s="15">
         <v>1433936</v>
       </c>
+      <c r="K97" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="L97" s="15" t="s">
         <v>20</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="16" t="s">
         <v>26</v>
       </c>
@@ -3623,20 +3623,20 @@
       <c r="J98" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K98" s="17" t="s">
-        <v>20</v>
+      <c r="K98" s="17">
+        <v>4481515</v>
       </c>
       <c r="L98" s="17">
-        <v>4481515</v>
+        <v>775399</v>
       </c>
       <c r="M98" s="17">
-        <v>775399</v>
+        <v>3715864</v>
       </c>
       <c r="N98" s="17">
-        <v>3715864</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>122910</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="14" t="s">
         <v>27</v>
       </c>
@@ -3665,17 +3665,17 @@
       <c r="K99" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L99" s="15" t="s">
-        <v>20</v>
+      <c r="L99" s="15">
+        <v>3892866</v>
       </c>
       <c r="M99" s="15">
-        <v>3892866</v>
+        <v>27378843</v>
       </c>
       <c r="N99" s="15">
-        <v>27378843</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9495830</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="16" t="s">
         <v>28</v>
       </c>
@@ -3704,54 +3704,54 @@
       <c r="K100" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L100" s="17" t="s">
-        <v>20</v>
+      <c r="L100" s="17">
+        <v>-4062</v>
       </c>
       <c r="M100" s="17">
-        <v>-4062</v>
+        <v>-22596435</v>
       </c>
       <c r="N100" s="17">
-        <v>-22596435</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20892557</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>5771763</v>
+        <v>8355294</v>
       </c>
       <c r="F101" s="11">
-        <v>8355294</v>
+        <v>16071541</v>
       </c>
       <c r="G101" s="11">
-        <v>16071541</v>
+        <v>9804556</v>
       </c>
       <c r="H101" s="11">
-        <v>9804556</v>
+        <v>13235731</v>
       </c>
       <c r="I101" s="11">
-        <v>13235731</v>
+        <v>8623055</v>
       </c>
       <c r="J101" s="11">
-        <v>8623055</v>
+        <v>6275664</v>
       </c>
       <c r="K101" s="11">
-        <v>6275664</v>
+        <v>12463245</v>
       </c>
       <c r="L101" s="11">
-        <v>12463245</v>
+        <v>5923968</v>
       </c>
       <c r="M101" s="11">
-        <v>5923968</v>
+        <v>9749108</v>
       </c>
       <c r="N101" s="11">
-        <v>9749108</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16703264</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>57</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>58</v>
       </c>
@@ -3805,41 +3805,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19">
-        <v>5771763</v>
+        <v>8355294</v>
       </c>
       <c r="F104" s="19">
-        <v>8355294</v>
+        <v>16071541</v>
       </c>
       <c r="G104" s="19">
-        <v>16071541</v>
+        <v>9804556</v>
       </c>
       <c r="H104" s="19">
-        <v>9804556</v>
+        <v>13235731</v>
       </c>
       <c r="I104" s="19">
-        <v>13235731</v>
+        <v>8623055</v>
       </c>
       <c r="J104" s="19">
-        <v>8623055</v>
+        <v>6275664</v>
       </c>
       <c r="K104" s="19">
-        <v>6275664</v>
+        <v>12463245</v>
       </c>
       <c r="L104" s="19">
-        <v>12463245</v>
+        <v>5923968</v>
       </c>
       <c r="M104" s="19">
-        <v>5923968</v>
+        <v>9749108</v>
       </c>
       <c r="N104" s="19">
-        <v>9749108</v>
+        <v>16703264</v>
       </c>
     </row>
   </sheetData>
